--- a/tests/fixtures/sample-members/temp1_invalid_email.xlsx
+++ b/tests/fixtures/sample-members/temp1_invalid_email.xlsx
@@ -22,7 +22,7 @@
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Rahul</t>
+    <t>Samrat</t>
   </si>
   <si>
     <t>email@domain..com</t>

--- a/tests/fixtures/sample-members/temp1_invalid_email.xlsx
+++ b/tests/fixtures/sample-members/temp1_invalid_email.xlsx
@@ -22,10 +22,10 @@
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Samrat</t>
+    <t>Rahul</t>
   </si>
   <si>
-    <t>email@domain..com</t>
+    <t>@domain.com</t>
   </si>
 </sst>
 </file>

--- a/tests/fixtures/sample-members/temp1_invalid_email.xlsx
+++ b/tests/fixtures/sample-members/temp1_invalid_email.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -19,13 +19,16 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Country Code</t>
+  </si>
+  <si>
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>@domain.com</t>
+    <t>Samrat</t>
+  </si>
+  <si>
+    <t>saloni@yopmial.com</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,15 +418,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="D2">
         <v>9712738076</v>
       </c>
     </row>
